--- a/biology/Médecine/Prix_de_médecine_de_l'université_Keiō/Prix_de_médecine_de_l'université_Keiō.xlsx
+++ b/biology/Médecine/Prix_de_médecine_de_l'université_Keiō/Prix_de_médecine_de_l'université_Keiō.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_de_m%C3%A9decine_de_l%27universit%C3%A9_Kei%C5%8D</t>
+          <t>Prix_de_médecine_de_l'université_Keiō</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prix de médecine de l'université Keiō (慶應医学賞?), est un éminent prix japonais dans les sciences biomédicales attribué depuis 1996.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_de_m%C3%A9decine_de_l%27universit%C3%A9_Kei%C5%8D</t>
+          <t>Prix_de_médecine_de_l'université_Keiō</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Introduction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix est attribué à des scientifiques qui ont fait d'importantes contributions dans le domaine des sciences médicales ou des sciences de la vie. Ces contributions peuvent renforcer la paix et la prospérité de l'humanité et de la société humaine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix est attribué à des scientifiques qui ont fait d'importantes contributions dans le domaine des sciences médicales ou des sciences de la vie. Ces contributions peuvent renforcer la paix et la prospérité de l'humanité et de la société humaine.
 Le montant du prix est de 20 millions de yens. Une médaille est également attribuée au lauréat. Tous les ans, deux lauréats au maximum sont distingués. La remise du prix a lieu chaque année normalement à l'université Keiō à Tokyo.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prix_de_m%C3%A9decine_de_l%27universit%C3%A9_Kei%C5%8D</t>
+          <t>Prix_de_médecine_de_l'université_Keiō</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1996 - Stanley B. Prusiner et Shigetada Nakanishi
 1997 - Robert A. Weinberg et Tadatsugu Taniguchi
@@ -565,7 +581,7 @@
 2013 - Victor Ambros and Shigekazu Nagata
 2014 - Karl Deisseroth and Hiroshi Hamada
 2015 - Jeffrey I. Gordon and Yoshinori Ohsumi
-2016 - Svante Pääbo and Tasuku Honjo[2]
+2016 - Svante Pääbo and Tasuku Honjo
 2017 - John Edgar Dick  et Seiji Ogawa
 2018 - Feng Zhang et Masashi Yanagisawa
 2019 - Hans Clevers (en) et  Tadamitsu Kishimoto (en)
